--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pgis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pgis-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +382,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>363263.18</v>
+        <v>365263.18</v>
       </c>
       <c r="B5">
         <v>799420.15</v>
@@ -394,7 +390,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>364716.47</v>
+        <v>365716.47</v>
       </c>
       <c r="B6">
         <v>799381.72</v>
@@ -402,7 +398,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>366818.01400000002</v>
+        <v>365818.01400000002</v>
       </c>
       <c r="B7">
         <v>799706.92299999995</v>
